--- a/sample runs.xlsx
+++ b/sample runs.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\fscmodel-single-step\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2BF25697-D7C6-42A0-88AE-ADA45D1FF64B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="6" xr2:uid="{BFA78011-C97C-4414-A10A-8D9B0D23CCB6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9075" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,8 +14,9 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="149">
   <si>
     <t>Name</t>
   </si>
@@ -476,11 +471,14 @@
   <si>
     <t>600 seconds, changing after 60.</t>
   </si>
+  <si>
+    <t xml:space="preserve">BAT2030, 3600 seconds, terminated at 2.25%, obj val is </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -575,7 +573,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D3B3CF6-79FF-4549-B195-766D306A9C7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D3B3CF6-79FF-4549-B195-766D306A9C7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -624,7 +622,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC5736F6-BBC2-4197-A73B-139D1D7F049E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC5736F6-BBC2-4197-A73B-139D1D7F049E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -673,7 +671,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3166C6A-FA1A-44C1-9190-8ABD3CE0A216}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3166C6A-FA1A-44C1-9190-8ABD3CE0A216}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -745,7 +743,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -797,7 +795,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -991,23 +989,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A3DD96-778E-4E8B-83EE-83856CABB8C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1086,7 +1084,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1127,7 +1125,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1168,7 +1166,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1206,7 +1204,7 @@
         <v>4786474.2285819398</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1244,7 +1242,7 @@
         <v>3339074.297922262</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1282,7 +1280,7 @@
         <v>5004876.8548450144</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1320,7 +1318,7 @@
         <v>3958606.636393812</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1358,7 +1356,7 @@
         <v>3222966.4756635739</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1396,7 +1394,7 @@
         <v>3919293.1077584191</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1434,7 +1432,7 @@
         <v>3875261.042358126</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1472,7 +1470,7 @@
         <v>4254355.776405789</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1510,7 +1508,7 @@
         <v>3688151.892731824</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1548,7 +1546,7 @@
         <v>3463541.1066401401</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1586,7 +1584,7 @@
         <v>5453109.6183073651</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,7 +1622,7 @@
         <v>4036792.335656594</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1662,7 +1660,7 @@
         <v>4040203.581756894</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1700,7 +1698,7 @@
         <v>4419167.7024882017</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1738,7 +1736,7 @@
         <v>3358308.4867327302</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1776,7 +1774,7 @@
         <v>5125344.5650219722</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1814,7 +1812,7 @@
         <v>4289921.7467737198</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1852,7 +1850,7 @@
         <v>4885693.4773732349</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1890,7 +1888,7 @@
         <v>4039822.6337913838</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1928,7 +1926,7 @@
         <v>3247244.13603022</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1966,7 +1964,7 @@
         <v>5273515.0546540348</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2004,7 +2002,7 @@
         <v>5024466.7875242131</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2042,7 +2040,7 @@
         <v>3864873.9956595078</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2080,7 +2078,7 @@
         <v>5015195.4560299078</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2118,7 +2116,7 @@
         <v>3433732.0501845139</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2156,7 +2154,7 @@
         <v>3431616.2325058882</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2194,7 +2192,7 @@
         <v>3024585.1021613521</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2232,7 +2230,7 @@
         <v>4829900.5669145826</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2270,7 +2268,7 @@
         <v>3039509.4259432149</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2308,7 +2306,7 @@
         <v>4973514.536159209</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2346,7 +2344,7 @@
         <v>3824493.3852658812</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2384,7 +2382,7 @@
         <v>3092355.7732280311</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2422,7 +2420,7 @@
         <v>3110889.8132254062</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2460,7 +2458,7 @@
         <v>4286880.9923093449</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2498,7 +2496,7 @@
         <v>3896843.8501006039</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2536,7 +2534,7 @@
         <v>5273515.0546540348</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2574,7 +2572,7 @@
         <v>3687149.8829204151</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2612,7 +2610,7 @@
         <v>3379765.0973641258</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2650,7 +2648,7 @@
         <v>3471397.820165223</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2688,7 +2686,7 @@
         <v>3831684.0852870541</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2726,7 +2724,7 @@
         <v>3965215.8926810562</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2764,7 +2762,7 @@
         <v>3700552.097367561</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2802,7 +2800,7 @@
         <v>5273515.0546540348</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2840,7 +2838,7 @@
         <v>4573255.8405453768</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2878,7 +2876,7 @@
         <v>3797758.5076568662</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2916,7 +2914,7 @@
         <v>4841430.0241866242</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2954,7 +2952,7 @@
         <v>4290239.6733879726</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2992,7 +2990,7 @@
         <v>4371651.5460272646</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3030,7 +3028,7 @@
         <v>4984037.426968283</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3068,7 +3066,7 @@
         <v>4418307.0525462897</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3106,7 +3104,7 @@
         <v>4201890.3469632436</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3144,7 +3142,7 @@
         <v>5105201.8512144843</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3188,16 +3186,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59D018F-77FD-4EA0-A9D3-0D3E75480D03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3232,7 +3230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3273,7 +3271,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3311,7 +3309,7 @@
         <v>3438756.6635755692</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3349,7 +3347,7 @@
         <v>5594639.7092473796</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3387,7 +3385,7 @@
         <v>4786474.2285819398</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3425,7 +3423,7 @@
         <v>3339074.297922262</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3463,7 +3461,7 @@
         <v>5004876.8548450144</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3501,7 +3499,7 @@
         <v>3958606.636393812</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3539,7 +3537,7 @@
         <v>3222966.4756635739</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3577,7 +3575,7 @@
         <v>4287320.2832015781</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3615,7 +3613,7 @@
         <v>3875261.042358126</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3653,7 +3651,7 @@
         <v>4254355.776405789</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3691,7 +3689,7 @@
         <v>3371557.8353655692</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3729,7 +3727,7 @@
         <v>3142515.8461077721</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3767,7 +3765,7 @@
         <v>5453109.6183073651</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3805,7 +3803,7 @@
         <v>4036792.335656594</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3843,7 +3841,7 @@
         <v>3693389.1116004982</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3881,7 +3879,7 @@
         <v>4039822.6337913838</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3919,7 +3917,7 @@
         <v>3701378.1511981431</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3957,7 +3955,7 @@
         <v>5125344.5650219722</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3995,7 +3993,7 @@
         <v>4692751.4765053354</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4033,7 +4031,7 @@
         <v>4885693.4773732349</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4071,7 +4069,7 @@
         <v>4039822.6337913838</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4109,7 +4107,7 @@
         <v>3247244.13603022</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4147,7 +4145,7 @@
         <v>5273515.0546540348</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4185,7 +4183,7 @@
         <v>5024466.7875242131</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4223,7 +4221,7 @@
         <v>3864873.9956595078</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4261,7 +4259,7 @@
         <v>5015195.4560299078</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4299,7 +4297,7 @@
         <v>3115469.7018914572</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4337,7 +4335,7 @@
         <v>3431616.2325058882</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4375,7 +4373,7 @@
         <v>3112807.881918733</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4413,7 +4411,7 @@
         <v>3024585.1021613521</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4451,7 +4449,7 @@
         <v>4829900.5669145826</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4489,7 +4487,7 @@
         <v>3039509.4259432149</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4527,7 +4525,7 @@
         <v>4973514.536159209</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4565,7 +4563,7 @@
         <v>3824493.3852658812</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4603,7 +4601,7 @@
         <v>3092355.7732280311</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4641,7 +4639,7 @@
         <v>3110889.8132254062</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4679,7 +4677,7 @@
         <v>4286880.9923093449</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4717,7 +4715,7 @@
         <v>3896843.8501006039</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4755,7 +4753,7 @@
         <v>5273515.0546540348</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4793,7 +4791,7 @@
         <v>3687149.8829204151</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4831,7 +4829,7 @@
         <v>3379765.0973641258</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4869,7 +4867,7 @@
         <v>3471397.820165223</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4907,7 +4905,7 @@
         <v>3831684.0852870541</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4945,7 +4943,7 @@
         <v>3965215.8926810562</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4983,7 +4981,7 @@
         <v>3700552.097367561</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5021,7 +5019,7 @@
         <v>5273515.0546540348</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5059,7 +5057,7 @@
         <v>3461586.1235537939</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5097,7 +5095,7 @@
         <v>4573255.8405453768</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5135,7 +5133,7 @@
         <v>3797758.5076568662</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5173,7 +5171,7 @@
         <v>4841430.0241866242</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5211,7 +5209,7 @@
         <v>4371651.5460272646</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5249,7 +5247,7 @@
         <v>4984037.426968283</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5287,7 +5285,7 @@
         <v>4418307.0525462897</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5325,7 +5323,7 @@
         <v>5105201.8512144843</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5363,7 +5361,7 @@
         <v>4757631.9386641448</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5407,16 +5405,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E8CAAD-2CD0-4B49-810C-A6F137ED890C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5451,7 +5449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5489,7 +5487,7 @@
         <v>3539329.1783282789</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5530,7 +5528,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5568,7 +5566,7 @@
         <v>5594639.7092473796</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5606,7 +5604,7 @@
         <v>4786474.2285819398</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5644,7 +5642,7 @@
         <v>3339074.297922262</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5682,7 +5680,7 @@
         <v>5004876.8548450144</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5720,7 +5718,7 @@
         <v>3958606.636393812</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5758,7 +5756,7 @@
         <v>3222966.4756635739</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5796,7 +5794,7 @@
         <v>3919293.1077584191</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5834,7 +5832,7 @@
         <v>3875261.042358126</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5872,7 +5870,7 @@
         <v>4653845.8111320771</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5910,7 +5908,7 @@
         <v>3371557.8353655692</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5948,7 +5946,7 @@
         <v>3463541.1066401401</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5986,7 +5984,7 @@
         <v>5453109.6183073651</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6024,7 +6022,7 @@
         <v>4036792.335656594</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6062,7 +6060,7 @@
         <v>3693389.1116004982</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6100,7 +6098,7 @@
         <v>4039822.6337913838</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6138,7 +6136,7 @@
         <v>4048942.8034911598</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6176,7 +6174,7 @@
         <v>5125344.5650219722</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6214,7 +6212,7 @@
         <v>4289921.7467737198</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6252,7 +6250,7 @@
         <v>4885693.4773732349</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6290,7 +6288,7 @@
         <v>4039822.6337913838</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6328,7 +6326,7 @@
         <v>2946266.794435292</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6366,7 +6364,7 @@
         <v>5273515.0546540348</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6404,7 +6402,7 @@
         <v>5024466.7875242131</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6442,7 +6440,7 @@
         <v>3864873.9956595078</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6480,7 +6478,7 @@
         <v>5015195.4560299078</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6518,7 +6516,7 @@
         <v>3115469.7018914572</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6556,7 +6554,7 @@
         <v>3431616.2325058882</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6594,7 +6592,7 @@
         <v>3405104.9520745701</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -6632,7 +6630,7 @@
         <v>3024585.1021613521</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6670,7 +6668,7 @@
         <v>4829900.5669145826</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6708,7 +6706,7 @@
         <v>3039509.4259432149</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6746,7 +6744,7 @@
         <v>4973514.536159209</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6784,7 +6782,7 @@
         <v>3824493.3852658812</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6822,7 +6820,7 @@
         <v>3092355.7732280311</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6860,7 +6858,7 @@
         <v>2890190.5532944882</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6898,7 +6896,7 @@
         <v>3110889.8132254062</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6936,7 +6934,7 @@
         <v>4286880.9923093449</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6974,7 +6972,7 @@
         <v>3896843.8501006039</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -7012,7 +7010,7 @@
         <v>5273515.0546540348</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -7050,7 +7048,7 @@
         <v>3687149.8829204151</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -7088,7 +7086,7 @@
         <v>3379765.0973641258</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -7126,7 +7124,7 @@
         <v>3471397.820165223</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -7164,7 +7162,7 @@
         <v>3831684.0852870541</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -7202,7 +7200,7 @@
         <v>3965215.8926810562</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -7240,7 +7238,7 @@
         <v>3700552.097367561</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -7278,7 +7276,7 @@
         <v>5273515.0546540348</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -7316,7 +7314,7 @@
         <v>3461586.1235537939</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -7354,7 +7352,7 @@
         <v>4573255.8405453768</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -7392,7 +7390,7 @@
         <v>3797758.5076568662</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -7430,7 +7428,7 @@
         <v>4841430.0241866242</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -7468,7 +7466,7 @@
         <v>4290239.6733879726</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7506,7 +7504,7 @@
         <v>4371651.5460272646</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -7544,7 +7542,7 @@
         <v>4984037.426968283</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -7582,7 +7580,7 @@
         <v>5105201.8512144843</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -7620,7 +7618,7 @@
         <v>4757631.9386641448</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7664,16 +7662,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E2974F-E443-4A2A-8FED-6BB59568DD9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="AB36" sqref="AB36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7708,7 +7706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7746,7 +7744,7 @@
         <v>3539329.1783282789</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7787,7 +7785,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7831,7 +7829,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7869,7 +7867,7 @@
         <v>4786474.2285819398</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7907,7 +7905,7 @@
         <v>3339074.297922262</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7945,7 +7943,7 @@
         <v>5004876.8548450144</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7983,7 +7981,7 @@
         <v>3958606.636393812</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -8021,7 +8019,7 @@
         <v>3222966.4756635739</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -8059,7 +8057,7 @@
         <v>3919293.1077584191</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -8097,7 +8095,7 @@
         <v>3875261.042358126</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -8135,7 +8133,7 @@
         <v>4254355.776405789</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -8173,7 +8171,7 @@
         <v>3371557.8353655692</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8211,7 +8209,7 @@
         <v>3788772.5234955829</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8249,7 +8247,7 @@
         <v>5453109.6183073651</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8287,7 +8285,7 @@
         <v>4036792.335656594</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -8325,7 +8323,7 @@
         <v>3693389.1116004982</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -8363,7 +8361,7 @@
         <v>4039822.6337913838</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -8401,7 +8399,7 @@
         <v>3701378.1511981431</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -8439,7 +8437,7 @@
         <v>5125344.5650219722</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -8477,7 +8475,7 @@
         <v>4692751.4765053354</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -8515,7 +8513,7 @@
         <v>4885693.4773732349</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -8553,7 +8551,7 @@
         <v>4419167.7024882017</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -8591,7 +8589,7 @@
         <v>2946266.794435292</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -8629,7 +8627,7 @@
         <v>5273515.0546540348</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -8667,7 +8665,7 @@
         <v>4593162.3367777346</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8705,7 +8703,7 @@
         <v>4227791.139378773</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8743,7 +8741,7 @@
         <v>5015195.4560299078</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8781,7 +8779,7 @@
         <v>3115469.7018914572</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8819,7 +8817,7 @@
         <v>3431616.2325058882</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -8857,7 +8855,7 @@
         <v>2824291.0344170881</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -8895,7 +8893,7 @@
         <v>3024585.1021613521</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -8933,7 +8931,7 @@
         <v>4829900.5669145826</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -8971,7 +8969,7 @@
         <v>3039509.4259432149</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -9009,7 +9007,7 @@
         <v>4973514.536159209</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -9047,7 +9045,7 @@
         <v>3824493.3852658812</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -9085,7 +9083,7 @@
         <v>3092355.7732280311</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -9123,7 +9121,7 @@
         <v>3110889.8132254062</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -9161,7 +9159,7 @@
         <v>4286880.9923093449</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -9199,7 +9197,7 @@
         <v>3896843.8501006039</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -9237,7 +9235,7 @@
         <v>5273515.0546540348</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -9275,7 +9273,7 @@
         <v>3687149.8829204151</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -9313,7 +9311,7 @@
         <v>3379765.0973641258</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -9351,7 +9349,7 @@
         <v>3471397.820165223</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -9389,7 +9387,7 @@
         <v>3831684.0852870541</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9427,7 +9425,7 @@
         <v>3965215.8926810562</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9465,7 +9463,7 @@
         <v>3700552.097367561</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9503,7 +9501,7 @@
         <v>5273515.0546540348</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9541,7 +9539,7 @@
         <v>4573255.8405453768</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9579,7 +9577,7 @@
         <v>3461586.1235537939</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9617,7 +9615,7 @@
         <v>3797758.5076568662</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -9655,7 +9653,7 @@
         <v>4841430.0241866242</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -9693,7 +9691,7 @@
         <v>4290239.6733879726</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -9731,7 +9729,7 @@
         <v>4371651.5460272646</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -9769,7 +9767,7 @@
         <v>4984037.426968283</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -9807,7 +9805,7 @@
         <v>4418307.0525462897</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -9845,7 +9843,7 @@
         <v>4201890.3469632436</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -9883,7 +9881,7 @@
         <v>4757631.9386641448</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -9928,19 +9926,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BDA2E39-FF4A-4722-AA63-BD9D2C99FBDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9975,7 +9973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -10016,7 +10014,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10057,7 +10055,7 @@
         <v>10728629719.2388</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -10095,7 +10093,7 @@
         <v>4640353.5262531228</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -10133,7 +10131,7 @@
         <v>5770810.054667593</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -10171,7 +10169,7 @@
         <v>3029585.493423196</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -10209,7 +10207,7 @@
         <v>6034127.0624305625</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -10247,7 +10245,7 @@
         <v>3591695.233391508</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -10285,7 +10283,7 @@
         <v>3222966.4756635739</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -10323,7 +10321,7 @@
         <v>3556025.5580796492</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -10361,7 +10359,7 @@
         <v>3516074.6930554118</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -10399,7 +10397,7 @@
         <v>3860032.2706446801</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -10437,7 +10435,7 @@
         <v>3059058.2289878251</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -10475,7 +10473,7 @@
         <v>3142515.8461077721</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -10513,7 +10511,7 @@
         <v>4985010.1068080934</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -10551,7 +10549,7 @@
         <v>3662634.1341602239</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -10589,7 +10587,7 @@
         <v>3351059.9273082009</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -10627,7 +10625,7 @@
         <v>3665383.563029062</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -10665,7 +10663,7 @@
         <v>3358308.4867327302</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -10703,7 +10701,7 @@
         <v>4685380.6810945962</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -10741,7 +10739,7 @@
         <v>3892301.7376503251</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -10779,7 +10777,7 @@
         <v>4052333.3287123572</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -10817,7 +10815,7 @@
         <v>3665383.563029062</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -10855,7 +10853,7 @@
         <v>2946266.794435292</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -10893,7 +10891,7 @@
         <v>5273515.0546540348</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -10931,7 +10929,7 @@
         <v>4167435.8648139262</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -10969,7 +10967,7 @@
         <v>3506650.390632065</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -11007,7 +11005,7 @@
         <v>5527525.2283322029</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -11045,7 +11043,7 @@
         <v>3115469.7018914572</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -11083,7 +11081,7 @@
         <v>3431616.2325058882</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -11121,7 +11119,7 @@
         <v>2824291.0344170881</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -11159,7 +11157,7 @@
         <v>3024585.1021613521</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -11197,7 +11195,7 @@
         <v>5823166.9958981434</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -11235,7 +11233,7 @@
         <v>3039509.4259432149</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -11273,7 +11271,7 @@
         <v>5996315.0999365421</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -11311,7 +11309,7 @@
         <v>3824493.3852658812</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -11349,7 +11347,7 @@
         <v>3092355.7732280311</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -11387,7 +11385,7 @@
         <v>2890190.5532944882</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -11425,7 +11423,7 @@
         <v>3110889.8132254062</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -11463,7 +11461,7 @@
         <v>4286880.9923093449</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -11501,7 +11499,7 @@
         <v>3896843.8501006039</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -11539,7 +11537,7 @@
         <v>5812233.59331741</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -11577,7 +11575,7 @@
         <v>3687149.8829204151</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -11615,7 +11613,7 @@
         <v>3379765.0973641258</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -11653,7 +11651,7 @@
         <v>3826020.1814208729</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -11691,7 +11689,7 @@
         <v>4223111.668152079</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -11729,7 +11727,7 @@
         <v>3965215.8926810562</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -11767,7 +11765,7 @@
         <v>3700552.097367561</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -11805,7 +11803,7 @@
         <v>3009426.4843188492</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -11843,7 +11841,7 @@
         <v>3248017.6969277528</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -11888,16 +11886,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB075E0-0CBD-4DF7-A3B0-7BC60417496F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11932,7 +11930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -11970,7 +11968,7 @@
         <v>3211279.3482268401</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -12008,7 +12006,7 @@
         <v>3120028.5989034441</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -12046,7 +12044,7 @@
         <v>4640353.5262531228</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -12087,7 +12085,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -12128,7 +12126,7 @@
         <v>10729875425.4559</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -12166,7 +12164,7 @@
         <v>5516152.5253397366</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -12204,7 +12202,7 @@
         <v>3591695.233391508</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -12242,7 +12240,7 @@
         <v>2924239.3577571651</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -12280,7 +12278,7 @@
         <v>3556025.5580796492</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -12318,7 +12316,7 @@
         <v>3516074.6930554118</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -12356,7 +12354,7 @@
         <v>4254355.776405789</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -12394,7 +12392,7 @@
         <v>3059058.2289878251</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -12432,7 +12430,7 @@
         <v>3142515.8461077721</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -12470,7 +12468,7 @@
         <v>4985010.1068080934</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -12508,7 +12506,7 @@
         <v>3662634.1341602239</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -12546,7 +12544,7 @@
         <v>3351059.9273082009</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -12584,7 +12582,7 @@
         <v>3665383.563029062</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -12622,7 +12620,7 @@
         <v>3358308.4867327302</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -12660,7 +12658,7 @@
         <v>4251106.7667593285</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -12698,7 +12696,7 @@
         <v>3892301.7376503251</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -12736,7 +12734,7 @@
         <v>4052333.3287123572</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -12774,7 +12772,7 @@
         <v>3665383.563029062</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -12812,7 +12810,7 @@
         <v>2946266.794435292</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -12850,7 +12848,7 @@
         <v>5273515.0546540348</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -12888,7 +12886,7 @@
         <v>4593162.3367777346</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -12926,7 +12924,7 @@
         <v>3506650.390632065</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -12964,7 +12962,7 @@
         <v>5527525.2283322029</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -13002,7 +13000,7 @@
         <v>3115469.7018914572</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -13040,7 +13038,7 @@
         <v>3431616.2325058882</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -13078,7 +13076,7 @@
         <v>2824291.0344170881</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -13116,7 +13114,7 @@
         <v>3333563.0892178952</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -13154,7 +13152,7 @@
         <v>5823166.9958981434</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -13192,7 +13190,7 @@
         <v>3350012.014677193</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -13230,7 +13228,7 @@
         <v>5996315.0999365421</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -13268,7 +13266,7 @@
         <v>3824493.3852658812</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -13306,7 +13304,7 @@
         <v>3092355.7732280311</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -13344,7 +13342,7 @@
         <v>3185439.398740639</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -13382,7 +13380,7 @@
         <v>3110889.8132254062</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -13420,7 +13418,7 @@
         <v>4286880.9923093449</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -13458,7 +13456,7 @@
         <v>3896843.8501006039</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -13496,7 +13494,7 @@
         <v>4445410.2542462507</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -13534,7 +13532,7 @@
         <v>3379765.0973641258</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -13572,7 +13570,7 @@
         <v>3471397.820165223</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -13610,7 +13608,7 @@
         <v>4619667.8368485225</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -13648,7 +13646,7 @@
         <v>3965215.8926810562</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -13686,7 +13684,7 @@
         <v>3700552.097367561</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -13724,7 +13722,7 @@
         <v>3461586.1235537939</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -13762,7 +13760,7 @@
         <v>3248017.6969277528</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -13800,7 +13798,7 @@
         <v>5513743.4209074127</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -13838,7 +13836,7 @@
         <v>3461586.1235537939</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -13883,16 +13881,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F818C49F-76E7-4445-9288-5C9751F31A55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13927,7 +13925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -13968,7 +13966,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -14009,7 +14007,7 @@
         <v>10731280224.480301</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -14047,7 +14045,7 @@
         <v>4640353.5262531228</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -14085,7 +14083,7 @@
         <v>5770810.054667593</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -14123,7 +14121,7 @@
         <v>3029585.493423196</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -14161,7 +14159,7 @@
         <v>6034127.0624305625</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -14199,7 +14197,7 @@
         <v>3591695.233391508</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -14237,7 +14235,7 @@
         <v>2924239.3577571651</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -14275,7 +14273,7 @@
         <v>3919293.1077584191</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -14313,7 +14311,7 @@
         <v>3516074.6930554118</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -14351,7 +14349,7 @@
         <v>3860032.2706446801</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -14389,7 +14387,7 @@
         <v>3059058.2289878251</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -14427,7 +14425,7 @@
         <v>3142515.8461077721</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -14465,7 +14463,7 @@
         <v>4522964.4376440952</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -14503,7 +14501,7 @@
         <v>3662634.1341602239</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -14541,7 +14539,7 @@
         <v>3351059.9273082009</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -14579,7 +14577,7 @@
         <v>3665383.563029062</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -14617,7 +14615,7 @@
         <v>3358308.4867327302</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -14655,7 +14653,7 @@
         <v>4251106.7667593285</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -14693,7 +14691,7 @@
         <v>3892301.7376503251</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -14731,7 +14729,7 @@
         <v>4466301.4441715488</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -14769,7 +14767,7 @@
         <v>4039822.6337913838</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -14807,7 +14805,7 @@
         <v>2946266.794435292</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -14845,7 +14843,7 @@
         <v>5812233.59331741</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -14883,7 +14881,7 @@
         <v>4167435.8648139262</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -14921,7 +14919,7 @@
         <v>3506650.390632065</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -14959,7 +14957,7 @@
         <v>6046567.678346199</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -14997,7 +14995,7 @@
         <v>3115469.7018914572</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -15035,7 +15033,7 @@
         <v>3431616.2325058882</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -15073,7 +15071,7 @@
         <v>3024585.1021613521</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -15111,7 +15109,7 @@
         <v>5323301.4481733404</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -15149,7 +15147,7 @@
         <v>3039509.4259432149</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -15187,7 +15185,7 @@
         <v>5996315.0999365421</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -15225,7 +15223,7 @@
         <v>3824493.3852658812</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -15263,7 +15261,7 @@
         <v>3092355.7732280311</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -15301,7 +15299,7 @@
         <v>3110889.8132254062</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -15339,7 +15337,7 @@
         <v>4724809.4403494326</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -15377,7 +15375,7 @@
         <v>4294927.8609678643</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -15415,7 +15413,7 @@
         <v>5273515.0546540348</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -15453,7 +15451,7 @@
         <v>3687149.8829204151</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -15491,7 +15489,7 @@
         <v>3471397.820165223</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -15529,7 +15527,7 @@
         <v>4619667.8368485225</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -15567,7 +15565,7 @@
         <v>3965215.8926810562</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -15605,7 +15603,7 @@
         <v>4461568.6268171445</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -15643,7 +15641,7 @@
         <v>3470530.2735449891</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -15681,7 +15679,7 @@
         <v>4573255.8405453768</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -15717,6 +15715,1924 @@
       </c>
       <c r="L48">
         <v>4290239.6733879726</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>25541</v>
+      </c>
+      <c r="D2">
+        <v>2.7624999999999988</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>33331633.333333328</v>
+      </c>
+      <c r="I2">
+        <v>92078637.083333313</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>18.7</v>
+      </c>
+      <c r="L2">
+        <v>3211279.3482268401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>25541</v>
+      </c>
+      <c r="D3">
+        <v>2.452272727272728</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>33331633.333333328</v>
+      </c>
+      <c r="I3">
+        <v>81738255.378787905</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="L3">
+        <v>3120028.5989034441</v>
+      </c>
+      <c r="N3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>25572</v>
+      </c>
+      <c r="D4">
+        <v>11.52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>33429264.217457522</v>
+      </c>
+      <c r="I4">
+        <v>385105123.78511071</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>77.981538461538477</v>
+      </c>
+      <c r="L4">
+        <v>4640353.5262531228</v>
+      </c>
+      <c r="N4">
+        <v>10727036714.354601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>25734</v>
+      </c>
+      <c r="D5">
+        <v>11.52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>0.1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>33429264.217457522</v>
+      </c>
+      <c r="I5">
+        <v>385105123.78511071</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>79.308542713567874</v>
+      </c>
+      <c r="L5">
+        <v>5770810.054667593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>26388</v>
+      </c>
+      <c r="D6">
+        <v>2.1715909090909089</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>0.1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>33429264.217457522</v>
+      </c>
+      <c r="I6">
+        <v>72594686.272228777</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>14.7</v>
+      </c>
+      <c r="L6">
+        <v>3029585.493423196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>25566</v>
+      </c>
+      <c r="D7">
+        <v>11.52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>0.2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>33609222.386415042</v>
+      </c>
+      <c r="I7">
+        <v>387178241.89150143</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>79.308542713567874</v>
+      </c>
+      <c r="L7">
+        <v>6034127.0624305625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>26316</v>
+      </c>
+      <c r="D8">
+        <v>4.3874999999999993</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>0.2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8">
+        <v>33609222.386415042</v>
+      </c>
+      <c r="I8">
+        <v>147460463.22039601</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>29.7</v>
+      </c>
+      <c r="L8">
+        <v>3591695.233391508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>26954</v>
+      </c>
+      <c r="D9">
+        <v>1.876136363636363</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>0.2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9">
+        <v>33609222.386415042</v>
+      </c>
+      <c r="I9">
+        <v>63055484.27269455</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>12.69999999999999</v>
+      </c>
+      <c r="L9">
+        <v>2924239.3577571651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>27570</v>
+      </c>
+      <c r="D10">
+        <v>4.2587564766839394</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>0.2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10">
+        <v>33609222.386415042</v>
+      </c>
+      <c r="I10">
+        <v>143133493.51445591</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <v>28.5</v>
+      </c>
+      <c r="L10">
+        <v>3919293.1077584191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>26892</v>
+      </c>
+      <c r="D11">
+        <v>4.0644974093264228</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11">
+        <v>34374076.889370747</v>
+      </c>
+      <c r="I11">
+        <v>139713346.46483469</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>27.199999999999989</v>
+      </c>
+      <c r="L11">
+        <v>3875261.042358126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>24534</v>
+      </c>
+      <c r="D12">
+        <v>5.9090909090909101</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>0.7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12">
+        <v>34962685.86338257</v>
+      </c>
+      <c r="I12">
+        <v>206597689.1927152</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>40.000000000000007</v>
+      </c>
+      <c r="L12">
+        <v>3860032.2706446801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>20457</v>
+      </c>
+      <c r="D13">
+        <v>2.2602272727272741</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>0.75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13">
+        <v>35112131.130057357</v>
+      </c>
+      <c r="I13">
+        <v>79361396.383731976</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>15.30000000000001</v>
+      </c>
+      <c r="L13">
+        <v>3059058.2289878251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>20539</v>
+      </c>
+      <c r="D14">
+        <v>2.5261363636363652</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>0.75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14">
+        <v>35112131.130057357</v>
+      </c>
+      <c r="I14">
+        <v>88698031.252406314</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14">
+        <v>17.100000000000009</v>
+      </c>
+      <c r="L14">
+        <v>3142515.8461077721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>21079</v>
+      </c>
+      <c r="D15">
+        <v>11.50611398963731</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>0.75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15">
+        <v>35112131.130057357</v>
+      </c>
+      <c r="I15">
+        <v>404004183.2015326</v>
+      </c>
+      <c r="J15">
+        <v>100</v>
+      </c>
+      <c r="K15">
+        <v>77</v>
+      </c>
+      <c r="L15">
+        <v>4985010.1068080934</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16">
+        <v>21107</v>
+      </c>
+      <c r="D16">
+        <v>4.8116476683937819</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>0.75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16">
+        <v>35112131.130057357</v>
+      </c>
+      <c r="I16">
+        <v>168947203.88427731</v>
+      </c>
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="L16">
+        <v>4036792.335656594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>21107</v>
+      </c>
+      <c r="D17">
+        <v>3.294318181818181</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>0.75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17">
+        <v>35112131.130057357</v>
+      </c>
+      <c r="I17">
+        <v>115670531.9841321</v>
+      </c>
+      <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="K17">
+        <v>22.29999999999999</v>
+      </c>
+      <c r="L17">
+        <v>3351059.9273082009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <v>21119</v>
+      </c>
+      <c r="D18">
+        <v>4.7715909090909108</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>0.75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18">
+        <v>35112131.130057357</v>
+      </c>
+      <c r="I18">
+        <v>167540725.69898969</v>
+      </c>
+      <c r="J18">
+        <v>100</v>
+      </c>
+      <c r="K18">
+        <v>32.300000000000011</v>
+      </c>
+      <c r="L18">
+        <v>3665383.563029062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>21129</v>
+      </c>
+      <c r="D19">
+        <v>3.3238636363636371</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>0.75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19">
+        <v>35112131.130057357</v>
+      </c>
+      <c r="I19">
+        <v>116707935.8584293</v>
+      </c>
+      <c r="J19">
+        <v>100</v>
+      </c>
+      <c r="K19">
+        <v>22.5</v>
+      </c>
+      <c r="L19">
+        <v>3358308.4867327302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>21683</v>
+      </c>
+      <c r="D20">
+        <v>8.8045454545454547</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>0.75</v>
+      </c>
+      <c r="G20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20">
+        <v>35112131.130057357</v>
+      </c>
+      <c r="I20">
+        <v>309146354.54055047</v>
+      </c>
+      <c r="J20">
+        <v>100</v>
+      </c>
+      <c r="K20">
+        <v>59.6</v>
+      </c>
+      <c r="L20">
+        <v>4251106.7667593285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
+        <v>21683</v>
+      </c>
+      <c r="D21">
+        <v>6.1159090909090894</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>0.75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21">
+        <v>35112131.130057357</v>
+      </c>
+      <c r="I21">
+        <v>214742601.97950989</v>
+      </c>
+      <c r="J21">
+        <v>100</v>
+      </c>
+      <c r="K21">
+        <v>41.399999999999991</v>
+      </c>
+      <c r="L21">
+        <v>3892301.7376503251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22">
+        <v>22113</v>
+      </c>
+      <c r="D22">
+        <v>7.3071295336787569</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>0.75</v>
+      </c>
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22">
+        <v>35112131.130057357</v>
+      </c>
+      <c r="I22">
+        <v>256568890.37084341</v>
+      </c>
+      <c r="J22">
+        <v>100</v>
+      </c>
+      <c r="K22">
+        <v>48.900000000000013</v>
+      </c>
+      <c r="L22">
+        <v>4466301.4441715488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23">
+        <v>22145</v>
+      </c>
+      <c r="D23">
+        <v>4.7715909090909108</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>0.8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23">
+        <v>35261419.939111128</v>
+      </c>
+      <c r="I23">
+        <v>168253070.82309961</v>
+      </c>
+      <c r="J23">
+        <v>100</v>
+      </c>
+      <c r="K23">
+        <v>32.300000000000011</v>
+      </c>
+      <c r="L23">
+        <v>3665383.563029062</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24">
+        <v>24114</v>
+      </c>
+      <c r="D24">
+        <v>1.935227272727271</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>0.8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24">
+        <v>35261419.939111128</v>
+      </c>
+      <c r="I24">
+        <v>68238861.541257054</v>
+      </c>
+      <c r="J24">
+        <v>100</v>
+      </c>
+      <c r="K24">
+        <v>13.099999999999991</v>
+      </c>
+      <c r="L24">
+        <v>2946266.794435292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25">
+        <v>28237</v>
+      </c>
+      <c r="D25">
+        <v>11.52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25">
+        <v>0.8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25">
+        <v>35261419.939111128</v>
+      </c>
+      <c r="I25">
+        <v>406211557.6985603</v>
+      </c>
+      <c r="J25">
+        <v>100</v>
+      </c>
+      <c r="K25">
+        <v>155.2000000000001</v>
+      </c>
+      <c r="L25">
+        <v>5273515.0546540348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26">
+        <v>28237</v>
+      </c>
+      <c r="D26">
+        <v>8.110227272727272</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>0.8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26">
+        <v>35261419.939111128</v>
+      </c>
+      <c r="I26">
+        <v>285978129.6652683</v>
+      </c>
+      <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26">
+        <v>54.899999999999991</v>
+      </c>
+      <c r="L26">
+        <v>4167435.8648139262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27">
+        <v>28237</v>
+      </c>
+      <c r="D27">
+        <v>3.9738636363636348</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>0.8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27">
+        <v>35261419.939111128</v>
+      </c>
+      <c r="I27">
+        <v>140124074.46258131</v>
+      </c>
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27">
+        <v>26.899999999999991</v>
+      </c>
+      <c r="L27">
+        <v>3506650.390632065</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28">
+        <v>26197</v>
+      </c>
+      <c r="D28">
+        <v>11.52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28">
+        <v>35849408.314991944</v>
+      </c>
+      <c r="I28">
+        <v>412985183.78870732</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28">
+        <v>77.092926490984766</v>
+      </c>
+      <c r="L28">
+        <v>5527525.2283322029</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29">
+        <v>29525</v>
+      </c>
+      <c r="D29">
+        <v>2.4375</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29">
+        <v>1.4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29">
+        <v>36933299.303900428</v>
+      </c>
+      <c r="I29">
+        <v>90024917.053257287</v>
+      </c>
+      <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29">
+        <v>16.5</v>
+      </c>
+      <c r="L29">
+        <v>3115469.7018914572</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
+        <v>30659</v>
+      </c>
+      <c r="D30">
+        <v>3.6340909090909079</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <v>1.7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30">
+        <v>37640511.58399763</v>
+      </c>
+      <c r="I30">
+        <v>136789040.96093681</v>
+      </c>
+      <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30">
+        <v>24.599999999999991</v>
+      </c>
+      <c r="L30">
+        <v>3431616.2325058882</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31">
+        <v>49086</v>
+      </c>
+      <c r="D31">
+        <v>1.625</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>1.8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31">
+        <v>37855437.772684962</v>
+      </c>
+      <c r="I31">
+        <v>61515086.380613059</v>
+      </c>
+      <c r="J31">
+        <v>100</v>
+      </c>
+      <c r="K31">
+        <v>11</v>
+      </c>
+      <c r="L31">
+        <v>2824291.0344170881</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
+        <v>49124</v>
+      </c>
+      <c r="D32">
+        <v>2.1568181818181809</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32">
+        <v>1.8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32">
+        <v>37855437.772684962</v>
+      </c>
+      <c r="I32">
+        <v>81647296.468813688</v>
+      </c>
+      <c r="J32">
+        <v>100</v>
+      </c>
+      <c r="K32">
+        <v>14.6</v>
+      </c>
+      <c r="L32">
+        <v>3024585.1021613521</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33">
+        <v>49525</v>
+      </c>
+      <c r="D33">
+        <v>11.52</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33">
+        <v>1.8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33">
+        <v>37855437.772684962</v>
+      </c>
+      <c r="I33">
+        <v>436094643.1413309</v>
+      </c>
+      <c r="J33">
+        <v>100</v>
+      </c>
+      <c r="K33">
+        <v>79.308542713567874</v>
+      </c>
+      <c r="L33">
+        <v>5823166.9958981434</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34">
+        <v>49536</v>
+      </c>
+      <c r="D34">
+        <v>2.201136363636365</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34">
+        <v>1.8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34">
+        <v>37855437.772684962</v>
+      </c>
+      <c r="I34">
+        <v>83324980.642830491</v>
+      </c>
+      <c r="J34">
+        <v>100</v>
+      </c>
+      <c r="K34">
+        <v>14.900000000000009</v>
+      </c>
+      <c r="L34">
+        <v>3039509.4259432149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35">
+        <v>49808</v>
+      </c>
+      <c r="D35">
+        <v>11.52</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35">
+        <v>1.8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35">
+        <v>37855437.772684962</v>
+      </c>
+      <c r="I35">
+        <v>436094643.1413309</v>
+      </c>
+      <c r="J35">
+        <v>100</v>
+      </c>
+      <c r="K35">
+        <v>79.308542713567874</v>
+      </c>
+      <c r="L35">
+        <v>5996315.0999365421</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36">
+        <v>49824</v>
+      </c>
+      <c r="D36">
+        <v>5.6875</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>1.8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36">
+        <v>37855437.772684962</v>
+      </c>
+      <c r="I36">
+        <v>215302802.33214569</v>
+      </c>
+      <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="K36">
+        <v>38.5</v>
+      </c>
+      <c r="L36">
+        <v>3824493.3852658812</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37">
+        <v>49824</v>
+      </c>
+      <c r="D37">
+        <v>2.3636363636363629</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37">
+        <v>1.8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37">
+        <v>37855437.772684962</v>
+      </c>
+      <c r="I37">
+        <v>89476489.280891716</v>
+      </c>
+      <c r="J37">
+        <v>100</v>
+      </c>
+      <c r="K37">
+        <v>16</v>
+      </c>
+      <c r="L37">
+        <v>3092355.7732280311</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38">
+        <v>31226</v>
+      </c>
+      <c r="D38">
+        <v>2.422727272727272</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <v>1.9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38">
+        <v>38060293.378968157</v>
+      </c>
+      <c r="I38">
+        <v>92209710.777227387</v>
+      </c>
+      <c r="J38">
+        <v>100</v>
+      </c>
+      <c r="K38">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L38">
+        <v>3110889.8132254062</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39">
+        <v>31319</v>
+      </c>
+      <c r="D39">
+        <v>9.1147727272727295</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39">
+        <v>1.9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39">
+        <v>38060293.378968157</v>
+      </c>
+      <c r="I39">
+        <v>346910924.08261788</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
+      </c>
+      <c r="K39">
+        <v>61.700000000000017</v>
+      </c>
+      <c r="L39">
+        <v>4286880.9923093449</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40">
+        <v>31789</v>
+      </c>
+      <c r="D40">
+        <v>6.1454545454545482</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40">
+        <v>1.9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40">
+        <v>38060293.378968157</v>
+      </c>
+      <c r="I40">
+        <v>233897802.94711351</v>
+      </c>
+      <c r="J40">
+        <v>100</v>
+      </c>
+      <c r="K40">
+        <v>41.600000000000023</v>
+      </c>
+      <c r="L40">
+        <v>3896843.8501006039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41">
+        <v>38239</v>
+      </c>
+      <c r="D41">
+        <v>11.438234950019041</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>60</v>
+      </c>
+      <c r="H41">
+        <v>38255392.021666877</v>
+      </c>
+      <c r="I41">
+        <v>437574162.04890978</v>
+      </c>
+      <c r="J41">
+        <v>100</v>
+      </c>
+      <c r="K41">
+        <v>76.545747064967941</v>
+      </c>
+      <c r="L41">
+        <v>5812233.59331741</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42">
+        <v>31061</v>
+      </c>
+      <c r="D42">
+        <v>4.889772727272728</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42">
+        <v>2.1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>92</v>
+      </c>
+      <c r="H42">
+        <v>38441090.939707853</v>
+      </c>
+      <c r="I42">
+        <v>187968198.0835942</v>
+      </c>
+      <c r="J42">
+        <v>100</v>
+      </c>
+      <c r="K42">
+        <v>33.1</v>
+      </c>
+      <c r="L42">
+        <v>3687149.8829204151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43">
+        <v>33106</v>
+      </c>
+      <c r="D43">
+        <v>3.4125000000000019</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G43" t="s">
+        <v>94</v>
+      </c>
+      <c r="H43">
+        <v>38785844.374162003</v>
+      </c>
+      <c r="I43">
+        <v>132356693.92682789</v>
+      </c>
+      <c r="J43">
+        <v>100</v>
+      </c>
+      <c r="K43">
+        <v>23.100000000000009</v>
+      </c>
+      <c r="L43">
+        <v>3379765.0973641258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44">
+        <v>33332</v>
+      </c>
+      <c r="D44">
+        <v>3.811363636363637</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G44" t="s">
+        <v>96</v>
+      </c>
+      <c r="H44">
+        <v>38785844.374162003</v>
+      </c>
+      <c r="I44">
+        <v>147826956.85334021</v>
+      </c>
+      <c r="J44">
+        <v>100</v>
+      </c>
+      <c r="K44">
+        <v>25.800000000000011</v>
+      </c>
+      <c r="L44">
+        <v>3471397.820165223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45">
+        <v>33609</v>
+      </c>
+      <c r="D45">
+        <v>5.635912408759121</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G45" t="s">
+        <v>98</v>
+      </c>
+      <c r="H45">
+        <v>38785844.374162003</v>
+      </c>
+      <c r="I45">
+        <v>218593621.5925397</v>
+      </c>
+      <c r="J45">
+        <v>100</v>
+      </c>
+      <c r="K45">
+        <v>38.799999999999983</v>
+      </c>
+      <c r="L45">
+        <v>4619667.8368485225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46">
+        <v>38372</v>
+      </c>
+      <c r="D46">
+        <v>6.6034090909090892</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G46" t="s">
+        <v>100</v>
+      </c>
+      <c r="H46">
+        <v>38785844.374162003</v>
+      </c>
+      <c r="I46">
+        <v>256118797.33892649</v>
+      </c>
+      <c r="J46">
+        <v>100</v>
+      </c>
+      <c r="K46">
+        <v>44.699999999999989</v>
+      </c>
+      <c r="L46">
+        <v>3965215.8926810562</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47">
+        <v>38723</v>
+      </c>
+      <c r="D47">
+        <v>4.8805839416058392</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H47">
+        <v>38785844.374162003</v>
+      </c>
+      <c r="I47">
+        <v>189297569.21415821</v>
+      </c>
+      <c r="J47">
+        <v>100</v>
+      </c>
+      <c r="K47">
+        <v>33.6</v>
+      </c>
+      <c r="L47">
+        <v>4461568.6268171445</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48">
+        <v>39171</v>
+      </c>
+      <c r="D48">
+        <v>2.1125000000000012</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <v>2.5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>140</v>
+      </c>
+      <c r="H48">
+        <v>39097761.983380251</v>
+      </c>
+      <c r="I48">
+        <v>82594022.189890832</v>
+      </c>
+      <c r="J48">
+        <v>100</v>
+      </c>
+      <c r="K48">
+        <v>14.30000000000001</v>
+      </c>
+      <c r="L48">
+        <v>3009426.4843188492</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49">
+        <v>39326</v>
+      </c>
+      <c r="D49">
+        <v>3.760428251994032</v>
+      </c>
+      <c r="E49" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49">
+        <v>2.5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>130</v>
+      </c>
+      <c r="H49">
+        <v>39097761.983380251</v>
+      </c>
+      <c r="I49">
+        <v>147024328.75204131</v>
+      </c>
+      <c r="J49">
+        <v>100</v>
+      </c>
+      <c r="K49">
+        <v>25.455206628882671</v>
+      </c>
+      <c r="L49">
+        <v>3461586.1235537939</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50">
+        <v>58710</v>
+      </c>
+      <c r="D50">
+        <v>11.52</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50">
+        <v>2.5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H50">
+        <v>39097761.983380251</v>
+      </c>
+      <c r="I50">
+        <v>450406218.04854059</v>
+      </c>
+      <c r="J50">
+        <v>100</v>
+      </c>
+      <c r="K50">
+        <v>77.981538461538477</v>
+      </c>
+      <c r="L50">
+        <v>4573255.8405453768</v>
       </c>
     </row>
   </sheetData>
